--- a/src/fileExcels/CD_25B1.xlsx
+++ b/src/fileExcels/CD_25B1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB069C-153B-489D-915F-CE7D3E06D62D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1798770A-9CD4-4C86-83F7-C62F9E1A5D72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>false</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>052174011405</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>054187000588</t>
@@ -62,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +69,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -90,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,21 +122,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DCC6457D-E4F8-4E62-BA3C-9920B2C4D449}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -419,7 +443,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,57 +454,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
